--- a/Analisa_Benchmark_Per_Cabang.xlsx
+++ b/Analisa_Benchmark_Per_Cabang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Downloads\SPIL\bbm\Analisa BBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B086D7-430F-4AF9-8F6D-45CC950F08F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A73CD1-6216-427F-A78E-DEEF99D14B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Benchmark_Summary" sheetId="1" r:id="rId1"/>
@@ -1363,8 +1363,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1372,7 +1373,7 @@
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -1403,209 +1404,209 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="E2">
-        <v>2490</v>
+        <v>8146</v>
       </c>
       <c r="F2">
-        <v>944.56</v>
+        <v>364.90000000000038</v>
       </c>
       <c r="G2">
-        <v>2.64</v>
+        <v>22.32</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="E3">
-        <v>2504</v>
+        <v>39850</v>
       </c>
       <c r="F3">
-        <v>557</v>
+        <v>2454</v>
       </c>
       <c r="G3">
-        <v>4.5</v>
+        <v>16.239999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="E4">
-        <v>54063</v>
+        <v>17885</v>
       </c>
       <c r="F4">
-        <v>3948</v>
+        <v>1132.200000000001</v>
       </c>
       <c r="G4">
-        <v>13.69</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>4385</v>
+        <v>58801</v>
       </c>
       <c r="F5">
-        <v>1745</v>
+        <v>3741</v>
       </c>
       <c r="G5">
-        <v>2.5099999999999998</v>
+        <v>15.72</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E6">
-        <v>11041</v>
+        <v>7316</v>
       </c>
       <c r="F6">
-        <v>3215</v>
+        <v>466</v>
       </c>
       <c r="G6">
-        <v>3.43</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>580269.68000000005</v>
       </c>
       <c r="F7">
-        <v>379.5</v>
+        <v>37289</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>15.56</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E8">
-        <v>58801</v>
+        <v>222391.58</v>
       </c>
       <c r="F8">
-        <v>3741</v>
+        <v>14499</v>
       </c>
       <c r="G8">
-        <v>15.72</v>
+        <v>15.34</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="E9">
-        <v>2050</v>
+        <v>3730</v>
       </c>
       <c r="F9">
-        <v>564</v>
+        <v>243.3000000000001</v>
       </c>
       <c r="G9">
-        <v>3.63</v>
+        <v>15.33</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E10">
-        <v>29700</v>
+        <v>54063</v>
       </c>
       <c r="F10">
-        <v>2266</v>
+        <v>3948</v>
       </c>
       <c r="G10">
-        <v>13.11</v>
+        <v>13.69</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1613,19 +1614,19 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>11600</v>
+        <v>29700</v>
       </c>
       <c r="F11">
-        <v>885</v>
+        <v>2266</v>
       </c>
       <c r="G11">
         <v>13.11</v>
@@ -1636,206 +1637,206 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>22150</v>
+        <v>11600</v>
       </c>
       <c r="F12">
-        <v>6046</v>
+        <v>885</v>
       </c>
       <c r="G12">
-        <v>3.66</v>
+        <v>13.11</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="E13">
-        <v>2070</v>
+        <v>18312</v>
       </c>
       <c r="F13">
-        <v>775</v>
+        <v>1457.8000000000011</v>
       </c>
       <c r="G13">
-        <v>2.67</v>
+        <v>12.56</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="E14">
-        <v>7316</v>
+        <v>48440</v>
       </c>
       <c r="F14">
-        <v>466</v>
+        <v>3903</v>
       </c>
       <c r="G14">
-        <v>15.7</v>
+        <v>12.41</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="E15">
-        <v>11743</v>
+        <v>58599</v>
       </c>
       <c r="F15">
-        <v>1368</v>
+        <v>4863</v>
       </c>
       <c r="G15">
-        <v>8.58</v>
+        <v>12.05</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="E16">
-        <v>5699</v>
+        <v>6129</v>
       </c>
       <c r="F16">
-        <v>1798</v>
+        <v>524</v>
       </c>
       <c r="G16">
-        <v>3.17</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="E17">
-        <v>56986.39</v>
+        <v>9700</v>
       </c>
       <c r="F17">
-        <v>12734</v>
+        <v>835.60000000000036</v>
       </c>
       <c r="G17">
-        <v>4.4800000000000004</v>
+        <v>11.61</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="E18">
-        <v>222391.58</v>
+        <v>14035</v>
       </c>
       <c r="F18">
-        <v>14499</v>
+        <v>1246.5</v>
       </c>
       <c r="G18">
-        <v>15.34</v>
+        <v>11.26</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E19">
-        <v>36269.78</v>
+        <v>6943</v>
       </c>
       <c r="F19">
-        <v>5163</v>
+        <v>621.10000000000036</v>
       </c>
       <c r="G19">
-        <v>7.02</v>
+        <v>11.18</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C20">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2905</v>
       </c>
       <c r="F20">
-        <v>155588</v>
+        <v>285.89999999999958</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>10.16</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1843,436 +1844,436 @@
         <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E21">
-        <v>3663</v>
+        <v>23694</v>
       </c>
       <c r="F21">
-        <v>922.0999999999998</v>
+        <v>2599.2000000000012</v>
       </c>
       <c r="G21">
-        <v>3.97</v>
+        <v>9.1199999999999992</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E22">
-        <v>23694</v>
+        <v>11743</v>
       </c>
       <c r="F22">
-        <v>2599.2000000000012</v>
+        <v>1368</v>
       </c>
       <c r="G22">
-        <v>9.1199999999999992</v>
+        <v>8.58</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E23">
-        <v>1585</v>
+        <v>4730</v>
       </c>
       <c r="F23">
-        <v>241.09999999999991</v>
+        <v>568</v>
       </c>
       <c r="G23">
-        <v>6.57</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="E24">
-        <v>2905</v>
+        <v>57153.74</v>
       </c>
       <c r="F24">
-        <v>285.89999999999958</v>
+        <v>6966</v>
       </c>
       <c r="G24">
-        <v>10.16</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E25">
-        <v>755</v>
+        <v>8290</v>
       </c>
       <c r="F25">
-        <v>421.00000000000051</v>
+        <v>1050</v>
       </c>
       <c r="G25">
-        <v>1.79</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E26">
-        <v>4730</v>
+        <v>36269.78</v>
       </c>
       <c r="F26">
-        <v>568</v>
+        <v>5163</v>
       </c>
       <c r="G26">
-        <v>8.33</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="E27">
-        <v>1487.17</v>
+        <v>1421</v>
       </c>
       <c r="F27">
-        <v>615</v>
+        <v>213</v>
       </c>
       <c r="G27">
-        <v>2.42</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="E28">
-        <v>6943</v>
+        <v>12945</v>
       </c>
       <c r="F28">
-        <v>621.10000000000036</v>
+        <v>1951</v>
       </c>
       <c r="G28">
-        <v>11.18</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E29">
-        <v>4150</v>
+        <v>1585</v>
       </c>
       <c r="F29">
-        <v>949.36999999999853</v>
+        <v>241.09999999999991</v>
       </c>
       <c r="G29">
-        <v>4.37</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E30">
-        <v>14035</v>
+        <v>138085.46</v>
       </c>
       <c r="F30">
-        <v>1246.5</v>
+        <v>23436</v>
       </c>
       <c r="G30">
-        <v>11.26</v>
+        <v>5.89</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E31">
-        <v>3730</v>
+        <v>5098</v>
       </c>
       <c r="F31">
-        <v>243.3000000000001</v>
+        <v>925.70000000000027</v>
       </c>
       <c r="G31">
-        <v>15.33</v>
+        <v>5.51</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="E32">
-        <v>8290</v>
+        <v>29047.61</v>
       </c>
       <c r="F32">
-        <v>1050</v>
+        <v>6401.7999999999993</v>
       </c>
       <c r="G32">
-        <v>7.9</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="E33">
-        <v>39850</v>
+        <v>2504</v>
       </c>
       <c r="F33">
-        <v>2454</v>
+        <v>557</v>
       </c>
       <c r="G33">
-        <v>16.239999999999998</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="E34">
-        <v>2910</v>
+        <v>56986.39</v>
       </c>
       <c r="F34">
-        <v>853.4</v>
+        <v>12734</v>
       </c>
       <c r="G34">
-        <v>3.41</v>
+        <v>4.4800000000000004</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E35">
-        <v>17885</v>
+        <v>4150</v>
       </c>
       <c r="F35">
-        <v>1132.200000000001</v>
+        <v>949.36999999999853</v>
       </c>
       <c r="G35">
-        <v>15.8</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E36">
-        <v>1495</v>
+        <v>1920</v>
       </c>
       <c r="F36">
-        <v>8310.9</v>
+        <v>453.59999999999991</v>
       </c>
       <c r="G36">
-        <v>0.18</v>
+        <v>4.2300000000000004</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="B37" t="s">
         <v>14</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E37">
-        <v>1920</v>
+        <v>34660</v>
       </c>
       <c r="F37">
-        <v>453.59999999999991</v>
+        <v>8675</v>
       </c>
       <c r="G37">
-        <v>4.2300000000000004</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E38">
-        <v>5098</v>
+        <v>3663</v>
       </c>
       <c r="F38">
-        <v>925.70000000000027</v>
+        <v>922.0999999999998</v>
       </c>
       <c r="G38">
-        <v>5.51</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="E39">
-        <v>18312</v>
+        <v>22150</v>
       </c>
       <c r="F39">
-        <v>1457.8000000000011</v>
+        <v>6046</v>
       </c>
       <c r="G39">
-        <v>12.56</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2280,160 +2281,160 @@
         <v>69</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="D40" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E40">
-        <v>82.3</v>
+        <v>974069.41</v>
       </c>
       <c r="F40">
-        <v>159</v>
+        <v>267595</v>
       </c>
       <c r="G40">
-        <v>0.52</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="E41">
-        <v>138085.46</v>
+        <v>2050</v>
       </c>
       <c r="F41">
-        <v>23436</v>
+        <v>564</v>
       </c>
       <c r="G41">
-        <v>5.89</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C42">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="E42">
-        <v>85017.04</v>
+        <v>11041</v>
       </c>
       <c r="F42">
-        <v>29678.6</v>
+        <v>3215</v>
       </c>
       <c r="G42">
-        <v>2.86</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C43">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E43">
-        <v>580269.68000000005</v>
+        <v>2910</v>
       </c>
       <c r="F43">
-        <v>37289</v>
+        <v>853.4</v>
       </c>
       <c r="G43">
-        <v>15.56</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="E44">
-        <v>57153.74</v>
+        <v>5699</v>
       </c>
       <c r="F44">
-        <v>6966</v>
+        <v>1798</v>
       </c>
       <c r="G44">
-        <v>8.1999999999999993</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E45">
-        <v>820.44</v>
+        <v>715</v>
       </c>
       <c r="F45">
-        <v>4001.3</v>
+        <v>231.2</v>
       </c>
       <c r="G45">
-        <v>0.21</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C46">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E46">
-        <v>974069.41</v>
+        <v>15655</v>
       </c>
       <c r="F46">
-        <v>267595</v>
+        <v>5180</v>
       </c>
       <c r="G46">
-        <v>3.64</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2441,160 +2442,160 @@
         <v>69</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D47" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E47">
-        <v>29047.61</v>
+        <v>85017.04</v>
       </c>
       <c r="F47">
-        <v>6401.7999999999993</v>
+        <v>29678.6</v>
       </c>
       <c r="G47">
-        <v>4.54</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E48">
-        <v>15655</v>
+        <v>2062</v>
       </c>
       <c r="F48">
-        <v>5180</v>
+        <v>745</v>
       </c>
       <c r="G48">
-        <v>3.02</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="E49">
-        <v>48440</v>
+        <v>2070</v>
       </c>
       <c r="F49">
-        <v>3903</v>
+        <v>775</v>
       </c>
       <c r="G49">
-        <v>12.41</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="E50">
-        <v>34660</v>
+        <v>2490</v>
       </c>
       <c r="F50">
-        <v>8675</v>
+        <v>944.56</v>
       </c>
       <c r="G50">
-        <v>4</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E51">
-        <v>715</v>
+        <v>1801.98</v>
       </c>
       <c r="F51">
-        <v>231.2</v>
+        <v>706</v>
       </c>
       <c r="G51">
-        <v>3.09</v>
+        <v>2.5499999999999998</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="E52">
-        <v>8146</v>
+        <v>4385</v>
       </c>
       <c r="F52">
-        <v>364.90000000000038</v>
+        <v>1745</v>
       </c>
       <c r="G52">
-        <v>22.32</v>
+        <v>2.5099999999999998</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="E53">
-        <v>1801.98</v>
+        <v>1487.17</v>
       </c>
       <c r="F53">
-        <v>706</v>
+        <v>615</v>
       </c>
       <c r="G53">
-        <v>2.5499999999999998</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2602,142 +2603,142 @@
         <v>86</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E54">
-        <v>58599</v>
+        <v>17541</v>
       </c>
       <c r="F54">
-        <v>4863</v>
+        <v>7677</v>
       </c>
       <c r="G54">
-        <v>12.05</v>
+        <v>2.2799999999999998</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E55">
-        <v>2062</v>
+        <v>2523</v>
       </c>
       <c r="F55">
-        <v>745</v>
+        <v>1139</v>
       </c>
       <c r="G55">
-        <v>2.77</v>
+        <v>2.2200000000000002</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="B56" t="s">
         <v>16</v>
       </c>
       <c r="C56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="E56">
-        <v>17541</v>
+        <v>755</v>
       </c>
       <c r="F56">
-        <v>7677</v>
+        <v>421.00000000000051</v>
       </c>
       <c r="G56">
-        <v>2.2799999999999998</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="E57">
-        <v>12945</v>
+        <v>82.3</v>
       </c>
       <c r="F57">
-        <v>1951</v>
+        <v>159</v>
       </c>
       <c r="G57">
-        <v>6.64</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E58">
-        <v>9700</v>
+        <v>820.44</v>
       </c>
       <c r="F58">
-        <v>835.60000000000036</v>
+        <v>4001.3</v>
       </c>
       <c r="G58">
-        <v>11.61</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="E59">
-        <v>1421</v>
+        <v>1495</v>
       </c>
       <c r="F59">
-        <v>213</v>
+        <v>8310.9</v>
       </c>
       <c r="G59">
-        <v>6.67</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="B60" t="s">
         <v>8</v>
@@ -2746,43 +2747,47 @@
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="E60">
-        <v>6129</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>524</v>
+        <v>379.5</v>
       </c>
       <c r="G60">
-        <v>11.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D61" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="E61">
-        <v>2523</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>1139</v>
+        <v>155588</v>
       </c>
       <c r="G61">
-        <v>2.2200000000000002</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G61" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G61" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G61">
+      <sortCondition descending="1" ref="G1:G61"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -53335,7 +53340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
